--- a/bar_chart.xlsx
+++ b/bar_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\dsc-5-capstone-project-online-ds-sp-000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C381A-15A1-4F5D-AD06-C3019875E3A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA02D-1E02-4283-83DC-1E5AA47C30BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="22656" windowHeight="12576" xr2:uid="{73BD8DBD-9A57-455A-B613-E0FFE7A21EAE}"/>
   </bookViews>
@@ -238,7 +238,7 @@
                   <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,6 +359,9 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
                   <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
                   <c:v>1.21</c:v>
@@ -558,6 +561,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1150,15 +1184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1486,7 +1520,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1561,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9</v>
+        <v>1.93</v>
+      </c>
+      <c r="C4">
+        <v>1.53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
